--- a/Tesis MIB/TESIS - Desarrollo/Cronogramas (oroginal y extensión).xlsx
+++ b/Tesis MIB/TESIS - Desarrollo/Cronogramas (oroginal y extensión).xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7725" windowHeight="5880" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7725" windowHeight="5880" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
     <sheet name="Prorroga" sheetId="2" r:id="rId2"/>
     <sheet name="Prorroga 2" sheetId="3" r:id="rId3"/>
+    <sheet name="Prorroga 2 corregida" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="35">
   <si>
     <t>Actividades</t>
   </si>
@@ -128,6 +129,9 @@
   </si>
   <si>
     <t>JUNIO</t>
+  </si>
+  <si>
+    <t>Prueba piloto sobre individuo/s no amputados para caracterización de la señal óptima necesaria a nivel de brazo y antebrazo.</t>
   </si>
 </sst>
 </file>
@@ -376,6 +380,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -387,13 +398,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -837,22 +841,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="16">
+      <c r="C1" s="21">
         <v>2023</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16">
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21">
         <v>2024</v>
       </c>
-      <c r="G1" s="16"/>
-      <c r="H1" s="17"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="22"/>
     </row>
     <row r="2" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="19"/>
+      <c r="B2" s="24"/>
       <c r="C2" s="2" t="s">
         <v>19</v>
       </c>
@@ -877,7 +881,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="6"/>
-      <c r="D3" s="21"/>
+      <c r="D3" s="17"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -900,7 +904,7 @@
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="21"/>
+      <c r="E5" s="17"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="9"/>
@@ -931,8 +935,8 @@
       <c r="B8" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
@@ -955,8 +959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E8"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="28.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -972,24 +976,24 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="21">
         <v>2024</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="17"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="22"/>
     </row>
     <row r="3" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="19"/>
+      <c r="B3" s="24"/>
       <c r="C3" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="20" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1007,7 +1011,7 @@
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="22"/>
+      <c r="E5" s="18"/>
     </row>
     <row r="6" spans="2:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
@@ -1015,7 +1019,7 @@
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
-      <c r="E6" s="23"/>
+      <c r="E6" s="19"/>
     </row>
     <row r="7" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
@@ -1023,7 +1027,98 @@
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
-      <c r="E7" s="22"/>
+      <c r="E7" s="18"/>
+    </row>
+    <row r="8" spans="2:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:E2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:E8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="28.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" customWidth="1"/>
+    <col min="2" max="2" width="47.5703125" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="5.85546875" customWidth="1"/>
+    <col min="8" max="8" width="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="21">
+        <v>2024</v>
+      </c>
+      <c r="D2" s="21"/>
+      <c r="E2" s="22"/>
+    </row>
+    <row r="3" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="24"/>
+      <c r="C3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B4" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="9"/>
+    </row>
+    <row r="5" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B5" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="18"/>
+    </row>
+    <row r="6" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B6" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="19"/>
+    </row>
+    <row r="7" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="18"/>
     </row>
     <row r="8" spans="2:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="13" t="s">
